--- a/po_analysis_by_asin/B0C5C1N668_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5C1N668_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,71 +452,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>220</v>
@@ -524,49 +524,257 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45397</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45404</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45411</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45418</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B16" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B42" t="n">
         <v>20</v>
       </c>
     </row>
@@ -581,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,41 +811,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>660</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>420</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>260</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>80</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C5C1N668_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5C1N668_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -805,7 +806,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -911,6 +912,733 @@
       </c>
       <c r="B14" t="n">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-4.396048961306656</v>
+      </c>
+      <c r="D2" t="n">
+        <v>210.233596269684</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20.2165661089829</v>
+      </c>
+      <c r="D3" t="n">
+        <v>210.1436766058947</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-12.91427062644268</v>
+      </c>
+      <c r="D4" t="n">
+        <v>212.1566434817589</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>98</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.489327121757212</v>
+      </c>
+      <c r="D5" t="n">
+        <v>206.5586176303883</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-11.17751658460789</v>
+      </c>
+      <c r="D6" t="n">
+        <v>210.930910087773</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-17.95987483454107</v>
+      </c>
+      <c r="D7" t="n">
+        <v>206.0882431062323</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>97</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.950134337579711</v>
+      </c>
+      <c r="D8" t="n">
+        <v>203.0386008490146</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>97</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.69651905068577</v>
+      </c>
+      <c r="D9" t="n">
+        <v>208.7540369775691</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>97</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-11.73661982148063</v>
+      </c>
+      <c r="D10" t="n">
+        <v>205.5446089396035</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>96</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.74761416630265</v>
+      </c>
+      <c r="D11" t="n">
+        <v>199.8682168527994</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>96</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-6.37761584665612</v>
+      </c>
+      <c r="D12" t="n">
+        <v>217.7593522640513</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>96</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-17.06744268315429</v>
+      </c>
+      <c r="D13" t="n">
+        <v>207.4707369057402</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>95</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13.44007698497807</v>
+      </c>
+      <c r="D14" t="n">
+        <v>197.7972252995544</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>95</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-17.00611810487149</v>
+      </c>
+      <c r="D15" t="n">
+        <v>199.9128728494959</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>95</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-19.49845835351579</v>
+      </c>
+      <c r="D16" t="n">
+        <v>206.9146262279759</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>94</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8.287952603374402</v>
+      </c>
+      <c r="D17" t="n">
+        <v>206.6193788305959</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>94</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-11.31977234325064</v>
+      </c>
+      <c r="D18" t="n">
+        <v>209.5488005254486</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>93</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-17.63676687346891</v>
+      </c>
+      <c r="D19" t="n">
+        <v>202.6697336831358</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>93</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-20.44747371522464</v>
+      </c>
+      <c r="D20" t="n">
+        <v>196.5400943399612</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>93</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-10.59487456679438</v>
+      </c>
+      <c r="D21" t="n">
+        <v>199.7157251945999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>93</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.1120126857293</v>
+      </c>
+      <c r="D22" t="n">
+        <v>199.1856384831627</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>92</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-17.07332754966603</v>
+      </c>
+      <c r="D23" t="n">
+        <v>196.9092421163638</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>92</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-15.06931977807919</v>
+      </c>
+      <c r="D24" t="n">
+        <v>201.5131341880353</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>92</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-14.78781884186865</v>
+      </c>
+      <c r="D25" t="n">
+        <v>192.411884374235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>91</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-10.11559907110237</v>
+      </c>
+      <c r="D26" t="n">
+        <v>207.8718075589789</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>91</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-15.46613280070124</v>
+      </c>
+      <c r="D27" t="n">
+        <v>202.1967001874025</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-18.74919951592252</v>
+      </c>
+      <c r="D28" t="n">
+        <v>190.1100854315006</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-24.4349614067728</v>
+      </c>
+      <c r="D29" t="n">
+        <v>197.2536190491094</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>89</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-24.41585948624586</v>
+      </c>
+      <c r="D30" t="n">
+        <v>201.2633221841409</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>89</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.88077617133848</v>
+      </c>
+      <c r="D31" t="n">
+        <v>198.9985983612795</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>89</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-16.46639077853176</v>
+      </c>
+      <c r="D32" t="n">
+        <v>197.1902115893416</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-22.64900996096026</v>
+      </c>
+      <c r="D33" t="n">
+        <v>197.3108525415806</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>88</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-22.17224265399865</v>
+      </c>
+      <c r="D34" t="n">
+        <v>193.3779895030701</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>88</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-21.75638115979671</v>
+      </c>
+      <c r="D35" t="n">
+        <v>196.818029210622</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>87</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-24.19301122817012</v>
+      </c>
+      <c r="D36" t="n">
+        <v>189.1216434656662</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>87</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-23.17530506724622</v>
+      </c>
+      <c r="D37" t="n">
+        <v>194.9213675809269</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>86</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-27.89985362271038</v>
+      </c>
+      <c r="D38" t="n">
+        <v>193.773050961222</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>86</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-29.10395646118725</v>
+      </c>
+      <c r="D39" t="n">
+        <v>198.1311652135032</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>85</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-26.3626315073152</v>
+      </c>
+      <c r="D40" t="n">
+        <v>192.8337430469729</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>85</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-26.60510587580034</v>
+      </c>
+      <c r="D41" t="n">
+        <v>193.6566813266842</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-18.77397123678445</v>
+      </c>
+      <c r="D42" t="n">
+        <v>192.352129314073</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>84</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-20.83721328175757</v>
+      </c>
+      <c r="D43" t="n">
+        <v>204.3203830217684</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>84</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-23.52499340176914</v>
+      </c>
+      <c r="D44" t="n">
+        <v>192.8591376226714</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>84</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-24.50981537511574</v>
+      </c>
+      <c r="D45" t="n">
+        <v>201.5782918269426</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>84</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-24.53975878470312</v>
+      </c>
+      <c r="D46" t="n">
+        <v>191.8066767888909</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>83</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-22.81074051617579</v>
+      </c>
+      <c r="D47" t="n">
+        <v>192.0749670597956</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>83</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-26.0391182146705</v>
+      </c>
+      <c r="D48" t="n">
+        <v>198.0285053791373</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>83</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-31.15590175155913</v>
+      </c>
+      <c r="D49" t="n">
+        <v>189.3513472624174</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>82</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-26.34415934342852</v>
+      </c>
+      <c r="D50" t="n">
+        <v>191.4640816498016</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C5C1N668_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5C1N668_po_data.xlsx
@@ -925,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,16 +944,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -962,12 +952,6 @@
       <c r="B2" t="n">
         <v>99</v>
       </c>
-      <c r="C2" t="n">
-        <v>-4.396048961306656</v>
-      </c>
-      <c r="D2" t="n">
-        <v>210.233596269684</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -976,12 +960,6 @@
       <c r="B3" t="n">
         <v>99</v>
       </c>
-      <c r="C3" t="n">
-        <v>-20.2165661089829</v>
-      </c>
-      <c r="D3" t="n">
-        <v>210.1436766058947</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -990,12 +968,6 @@
       <c r="B4" t="n">
         <v>99</v>
       </c>
-      <c r="C4" t="n">
-        <v>-12.91427062644268</v>
-      </c>
-      <c r="D4" t="n">
-        <v>212.1566434817589</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1004,12 +976,6 @@
       <c r="B5" t="n">
         <v>98</v>
       </c>
-      <c r="C5" t="n">
-        <v>-6.489327121757212</v>
-      </c>
-      <c r="D5" t="n">
-        <v>206.5586176303883</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1018,12 +984,6 @@
       <c r="B6" t="n">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
-        <v>-11.17751658460789</v>
-      </c>
-      <c r="D6" t="n">
-        <v>210.930910087773</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1032,12 +992,6 @@
       <c r="B7" t="n">
         <v>98</v>
       </c>
-      <c r="C7" t="n">
-        <v>-17.95987483454107</v>
-      </c>
-      <c r="D7" t="n">
-        <v>206.0882431062323</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1046,12 +1000,6 @@
       <c r="B8" t="n">
         <v>97</v>
       </c>
-      <c r="C8" t="n">
-        <v>-2.950134337579711</v>
-      </c>
-      <c r="D8" t="n">
-        <v>203.0386008490146</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1060,12 +1008,6 @@
       <c r="B9" t="n">
         <v>97</v>
       </c>
-      <c r="C9" t="n">
-        <v>-12.69651905068577</v>
-      </c>
-      <c r="D9" t="n">
-        <v>208.7540369775691</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1074,12 +1016,6 @@
       <c r="B10" t="n">
         <v>97</v>
       </c>
-      <c r="C10" t="n">
-        <v>-11.73661982148063</v>
-      </c>
-      <c r="D10" t="n">
-        <v>205.5446089396035</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1088,12 +1024,6 @@
       <c r="B11" t="n">
         <v>96</v>
       </c>
-      <c r="C11" t="n">
-        <v>-12.74761416630265</v>
-      </c>
-      <c r="D11" t="n">
-        <v>199.8682168527994</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1102,12 +1032,6 @@
       <c r="B12" t="n">
         <v>96</v>
       </c>
-      <c r="C12" t="n">
-        <v>-6.37761584665612</v>
-      </c>
-      <c r="D12" t="n">
-        <v>217.7593522640513</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1116,12 +1040,6 @@
       <c r="B13" t="n">
         <v>96</v>
       </c>
-      <c r="C13" t="n">
-        <v>-17.06744268315429</v>
-      </c>
-      <c r="D13" t="n">
-        <v>207.4707369057402</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1130,12 +1048,6 @@
       <c r="B14" t="n">
         <v>95</v>
       </c>
-      <c r="C14" t="n">
-        <v>-13.44007698497807</v>
-      </c>
-      <c r="D14" t="n">
-        <v>197.7972252995544</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1144,12 +1056,6 @@
       <c r="B15" t="n">
         <v>95</v>
       </c>
-      <c r="C15" t="n">
-        <v>-17.00611810487149</v>
-      </c>
-      <c r="D15" t="n">
-        <v>199.9128728494959</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1158,12 +1064,6 @@
       <c r="B16" t="n">
         <v>95</v>
       </c>
-      <c r="C16" t="n">
-        <v>-19.49845835351579</v>
-      </c>
-      <c r="D16" t="n">
-        <v>206.9146262279759</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1172,12 +1072,6 @@
       <c r="B17" t="n">
         <v>94</v>
       </c>
-      <c r="C17" t="n">
-        <v>-8.287952603374402</v>
-      </c>
-      <c r="D17" t="n">
-        <v>206.6193788305959</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1186,12 +1080,6 @@
       <c r="B18" t="n">
         <v>94</v>
       </c>
-      <c r="C18" t="n">
-        <v>-11.31977234325064</v>
-      </c>
-      <c r="D18" t="n">
-        <v>209.5488005254486</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1200,12 +1088,6 @@
       <c r="B19" t="n">
         <v>93</v>
       </c>
-      <c r="C19" t="n">
-        <v>-17.63676687346891</v>
-      </c>
-      <c r="D19" t="n">
-        <v>202.6697336831358</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1214,12 +1096,6 @@
       <c r="B20" t="n">
         <v>93</v>
       </c>
-      <c r="C20" t="n">
-        <v>-20.44747371522464</v>
-      </c>
-      <c r="D20" t="n">
-        <v>196.5400943399612</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1228,12 +1104,6 @@
       <c r="B21" t="n">
         <v>93</v>
       </c>
-      <c r="C21" t="n">
-        <v>-10.59487456679438</v>
-      </c>
-      <c r="D21" t="n">
-        <v>199.7157251945999</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1242,12 +1112,6 @@
       <c r="B22" t="n">
         <v>93</v>
       </c>
-      <c r="C22" t="n">
-        <v>-14.1120126857293</v>
-      </c>
-      <c r="D22" t="n">
-        <v>199.1856384831627</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1256,12 +1120,6 @@
       <c r="B23" t="n">
         <v>92</v>
       </c>
-      <c r="C23" t="n">
-        <v>-17.07332754966603</v>
-      </c>
-      <c r="D23" t="n">
-        <v>196.9092421163638</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1270,12 +1128,6 @@
       <c r="B24" t="n">
         <v>92</v>
       </c>
-      <c r="C24" t="n">
-        <v>-15.06931977807919</v>
-      </c>
-      <c r="D24" t="n">
-        <v>201.5131341880353</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1284,12 +1136,6 @@
       <c r="B25" t="n">
         <v>92</v>
       </c>
-      <c r="C25" t="n">
-        <v>-14.78781884186865</v>
-      </c>
-      <c r="D25" t="n">
-        <v>192.411884374235</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1298,12 +1144,6 @@
       <c r="B26" t="n">
         <v>91</v>
       </c>
-      <c r="C26" t="n">
-        <v>-10.11559907110237</v>
-      </c>
-      <c r="D26" t="n">
-        <v>207.8718075589789</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1312,12 +1152,6 @@
       <c r="B27" t="n">
         <v>91</v>
       </c>
-      <c r="C27" t="n">
-        <v>-15.46613280070124</v>
-      </c>
-      <c r="D27" t="n">
-        <v>202.1967001874025</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1326,12 +1160,6 @@
       <c r="B28" t="n">
         <v>90</v>
       </c>
-      <c r="C28" t="n">
-        <v>-18.74919951592252</v>
-      </c>
-      <c r="D28" t="n">
-        <v>190.1100854315006</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1340,12 +1168,6 @@
       <c r="B29" t="n">
         <v>90</v>
       </c>
-      <c r="C29" t="n">
-        <v>-24.4349614067728</v>
-      </c>
-      <c r="D29" t="n">
-        <v>197.2536190491094</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1354,12 +1176,6 @@
       <c r="B30" t="n">
         <v>89</v>
       </c>
-      <c r="C30" t="n">
-        <v>-24.41585948624586</v>
-      </c>
-      <c r="D30" t="n">
-        <v>201.2633221841409</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1368,12 +1184,6 @@
       <c r="B31" t="n">
         <v>89</v>
       </c>
-      <c r="C31" t="n">
-        <v>-10.88077617133848</v>
-      </c>
-      <c r="D31" t="n">
-        <v>198.9985983612795</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1382,12 +1192,6 @@
       <c r="B32" t="n">
         <v>89</v>
       </c>
-      <c r="C32" t="n">
-        <v>-16.46639077853176</v>
-      </c>
-      <c r="D32" t="n">
-        <v>197.1902115893416</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1396,12 +1200,6 @@
       <c r="B33" t="n">
         <v>89</v>
       </c>
-      <c r="C33" t="n">
-        <v>-22.64900996096026</v>
-      </c>
-      <c r="D33" t="n">
-        <v>197.3108525415806</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1410,12 +1208,6 @@
       <c r="B34" t="n">
         <v>88</v>
       </c>
-      <c r="C34" t="n">
-        <v>-22.17224265399865</v>
-      </c>
-      <c r="D34" t="n">
-        <v>193.3779895030701</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1424,12 +1216,6 @@
       <c r="B35" t="n">
         <v>88</v>
       </c>
-      <c r="C35" t="n">
-        <v>-21.75638115979671</v>
-      </c>
-      <c r="D35" t="n">
-        <v>196.818029210622</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1438,12 +1224,6 @@
       <c r="B36" t="n">
         <v>87</v>
       </c>
-      <c r="C36" t="n">
-        <v>-24.19301122817012</v>
-      </c>
-      <c r="D36" t="n">
-        <v>189.1216434656662</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1452,12 +1232,6 @@
       <c r="B37" t="n">
         <v>87</v>
       </c>
-      <c r="C37" t="n">
-        <v>-23.17530506724622</v>
-      </c>
-      <c r="D37" t="n">
-        <v>194.9213675809269</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1466,12 +1240,6 @@
       <c r="B38" t="n">
         <v>86</v>
       </c>
-      <c r="C38" t="n">
-        <v>-27.89985362271038</v>
-      </c>
-      <c r="D38" t="n">
-        <v>193.773050961222</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1480,12 +1248,6 @@
       <c r="B39" t="n">
         <v>86</v>
       </c>
-      <c r="C39" t="n">
-        <v>-29.10395646118725</v>
-      </c>
-      <c r="D39" t="n">
-        <v>198.1311652135032</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1494,12 +1256,6 @@
       <c r="B40" t="n">
         <v>85</v>
       </c>
-      <c r="C40" t="n">
-        <v>-26.3626315073152</v>
-      </c>
-      <c r="D40" t="n">
-        <v>192.8337430469729</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1508,12 +1264,6 @@
       <c r="B41" t="n">
         <v>85</v>
       </c>
-      <c r="C41" t="n">
-        <v>-26.60510587580034</v>
-      </c>
-      <c r="D41" t="n">
-        <v>193.6566813266842</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1522,12 +1272,6 @@
       <c r="B42" t="n">
         <v>85</v>
       </c>
-      <c r="C42" t="n">
-        <v>-18.77397123678445</v>
-      </c>
-      <c r="D42" t="n">
-        <v>192.352129314073</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1536,12 +1280,6 @@
       <c r="B43" t="n">
         <v>84</v>
       </c>
-      <c r="C43" t="n">
-        <v>-20.83721328175757</v>
-      </c>
-      <c r="D43" t="n">
-        <v>204.3203830217684</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1550,12 +1288,6 @@
       <c r="B44" t="n">
         <v>84</v>
       </c>
-      <c r="C44" t="n">
-        <v>-23.52499340176914</v>
-      </c>
-      <c r="D44" t="n">
-        <v>192.8591376226714</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1564,12 +1296,6 @@
       <c r="B45" t="n">
         <v>84</v>
       </c>
-      <c r="C45" t="n">
-        <v>-24.50981537511574</v>
-      </c>
-      <c r="D45" t="n">
-        <v>201.5782918269426</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1578,12 +1304,6 @@
       <c r="B46" t="n">
         <v>84</v>
       </c>
-      <c r="C46" t="n">
-        <v>-24.53975878470312</v>
-      </c>
-      <c r="D46" t="n">
-        <v>191.8066767888909</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1592,12 +1312,6 @@
       <c r="B47" t="n">
         <v>83</v>
       </c>
-      <c r="C47" t="n">
-        <v>-22.81074051617579</v>
-      </c>
-      <c r="D47" t="n">
-        <v>192.0749670597956</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1606,12 +1320,6 @@
       <c r="B48" t="n">
         <v>83</v>
       </c>
-      <c r="C48" t="n">
-        <v>-26.0391182146705</v>
-      </c>
-      <c r="D48" t="n">
-        <v>198.0285053791373</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1620,12 +1328,6 @@
       <c r="B49" t="n">
         <v>83</v>
       </c>
-      <c r="C49" t="n">
-        <v>-31.15590175155913</v>
-      </c>
-      <c r="D49" t="n">
-        <v>189.3513472624174</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1633,12 +1335,6 @@
       </c>
       <c r="B50" t="n">
         <v>82</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-26.34415934342852</v>
-      </c>
-      <c r="D50" t="n">
-        <v>191.4640816498016</v>
       </c>
     </row>
   </sheetData>
